--- a/zn1Web/Files/Agenda.xlsx
+++ b/zn1Web/Files/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Data</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Kowalski Adam</t>
-  </si>
-  <si>
-    <t>Opowieści z Narnii</t>
   </si>
   <si>
     <t>Tytuł</t>
@@ -89,6 +86,21 @@
   </si>
   <si>
     <t>Opowieści z Narnii9</t>
+  </si>
+  <si>
+    <t>Ascos</t>
+  </si>
+  <si>
+    <t>Maciaszczyk Jan</t>
+  </si>
+  <si>
+    <t>Kaizen</t>
+  </si>
+  <si>
+    <t>Kaizen jest praktyką ciągłego doskonalenia. Został wprowadzony i opisany w 1986 przez Masaaki Imai w książce Kaizen: Klucz do sukcesu konkurencyjnego Japonii. Dzisiaj Kaizen jest rozpoznawany na całym świecie jako ważny filar długofalowej strategii konkurencyjnej organizacji.</t>
+  </si>
+  <si>
+    <t>Ofjejknfewmkjfbjwbści z Narnii</t>
   </si>
 </sst>
 </file>
@@ -141,10 +153,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -459,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C35ADFD-B471-4976-BB71-BD65E7C9C264}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -499,14 +511,14 @@
       <c r="B2" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -519,11 +531,11 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,11 +548,11 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -553,11 +565,11 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,16 +582,16 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43446</v>
+        <v>43111</v>
       </c>
       <c r="B7" s="2">
         <v>0.75</v>
@@ -587,11 +599,11 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -604,11 +616,11 @@
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -621,11 +633,11 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,11 +650,11 @@
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,11 +667,28 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42858</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12.125</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/zn1Web/Files/Agenda.xlsx
+++ b/zn1Web/Files/Agenda.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4470" xr2:uid="{29F12050-75FA-45C2-98A1-8931A38402EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="4470" xr2:uid="{29F12050-75FA-45C2-98A1-8931A38402EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/zn1Web/Files/Agenda.xlsx
+++ b/zn1Web/Files/Agenda.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Data</t>
   </si>
@@ -38,69 +38,120 @@
     <t>Prelegent</t>
   </si>
   <si>
-    <t>Kowalski Adam</t>
-  </si>
-  <si>
     <t>Tytuł</t>
   </si>
   <si>
-    <t>coś tam coś tam</t>
-  </si>
-  <si>
-    <t>Opowieści z Narnii1</t>
-  </si>
-  <si>
-    <t>Opowieści z Narnii2</t>
-  </si>
-  <si>
-    <t>Opowieści z Narnii3</t>
-  </si>
-  <si>
-    <t>Opowieści z Narnii4</t>
-  </si>
-  <si>
-    <t>Opowieści z Narnii5</t>
-  </si>
-  <si>
-    <t>ASP.NET MVC gives you a powerful, patterns-based way to build dynamic websites that enables a clean separation of concerns and gives you full control over markup for enjoyable, agile development.</t>
-  </si>
-  <si>
-    <t>NuGet is a free Visual Studio extension that makes it easy to add, remove, and update libraries and tools in Visual Studio projects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can easily find a web hosting company that offers the right mix of features and price for your applications.
-Learn more »
-</t>
-  </si>
-  <si>
-    <t>ASP.NET is a free web framework for building great Web sites and Web applications using HTML, CSS and JavaScript.</t>
-  </si>
-  <si>
-    <t>Opowieści z Narnii6</t>
-  </si>
-  <si>
-    <t>Opowieści z Narnii7</t>
-  </si>
-  <si>
-    <t>Opowieści z Narnii8</t>
-  </si>
-  <si>
-    <t>Opowieści z Narnii9</t>
-  </si>
-  <si>
-    <t>Ascos</t>
-  </si>
-  <si>
-    <t>Maciaszczyk Jan</t>
-  </si>
-  <si>
-    <t>Kaizen</t>
-  </si>
-  <si>
-    <t>Kaizen jest praktyką ciągłego doskonalenia. Został wprowadzony i opisany w 1986 przez Masaaki Imai w książce Kaizen: Klucz do sukcesu konkurencyjnego Japonii. Dzisiaj Kaizen jest rozpoznawany na całym świecie jako ważny filar długofalowej strategii konkurencyjnej organizacji.</t>
-  </si>
-  <si>
-    <t>Ofjejknfewmkjfbjwbści z Narnii</t>
+    <t>Rejestracja</t>
+  </si>
+  <si>
+    <t>Rejestracja uczestników.</t>
+  </si>
+  <si>
+    <t>Otwarcie konferencji</t>
+  </si>
+  <si>
+    <t>Bardzo zwinne powitanie uczestników i prelegentów na konferencji Ogarnij Agile #2</t>
+  </si>
+  <si>
+    <t>Viva la revolución! Czyli przepis na skuteczną transformację Agile</t>
+  </si>
+  <si>
+    <t>Lech Wypychowski, Agile Brains</t>
+  </si>
+  <si>
+    <t>Ścieżka: Transformacja do zwinności
+W ramach prelekcji, Lech Wypychowski - certyfikowany Scrum Master, od lat zaangażowany w pracę przy dużych projektach informatycznych, opowie o skutecznej transformacji w organizacji.</t>
+  </si>
+  <si>
+    <t>Jak skalować zachowując zdolność do samoorganizacji?</t>
+  </si>
+  <si>
+    <t>Przemysław Witka, Agile Brains</t>
+  </si>
+  <si>
+    <t>Ścieżka: Skalowanie Agile
+Jak zachować zdolność do samoorganizacji się zespołu w rosnącej organizacji, opowie Przemysaw Witka - Agile Coach  Scrum Master w Intel Corporation.</t>
+  </si>
+  <si>
+    <t>Scaled Agile Framework na 8 obrazkach</t>
+  </si>
+  <si>
+    <t>Ścieżka: Skalowanie Agile
+Skalowanie zwinnych praktyk jest zawsze wyzwaniem dla organizacji, w wielu opiniach niemożliwym do realizacji, w jeszcze innych nawet nie wartym uwagi.
+Czy korporacje lub duże organizacje, są skazane na porażkę podczas wdrażania zmiany w kulturze lub praktyk promowanych przez Agile ?
+Ciągła potrzeba uczenia i doskonalenia się wymaga aby próbować i dlaczego by nie spróbować z Scaled Agile Framework, który jest jednym z najbardziej popularnych obecnie zestawów dobrych praktyk. Nie każda organizacja to start-up, nie każda organizacja to firma pisząca aplikacje, dlatego warto próbować adaptować różne punkty widzenia.
+Podczas prezentacji zostaną zaprezentowane w sposób zwięzły podstawowe koncepcje promowane przez Scaled Agile Framework.</t>
+  </si>
+  <si>
+    <t>Bartosz Chrabski</t>
+  </si>
+  <si>
+    <t>Przerwa i Networking</t>
+  </si>
+  <si>
+    <t>Czas na nabranie sił na kolejny blok wykładowy. Kawa to doskonała okazja na poznanie innych uczestników konferencji, nawiązanie relacji biznesowych (i nie tylko).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zwinne zarządzanie projektami HR</t>
+  </si>
+  <si>
+    <t>Jola Spodzieja, BingoHR</t>
+  </si>
+  <si>
+    <t>Ścieżka: Agile poza IT / Agile HR
+Zwinna rekrutacja, tak to już dziś!
+Agile szturmem zdobywa nowych zwolenników i jest odmieniane przez wszystkie możliwe formy. Rekrutujemy członków zespołów SCRUMowych i zachwalamy tę metodologię pracy.
+Jak przenieść na grunt HRowy zdobycze wypracowane w projektach IT? 
+Czy zwinność w rekrutacji jest przydatna? 
+Co implementować, a co może być przerostem formy nad treścią? 
+Czy Ty i Twoja organizacja jesteście gotowi na Agile? 
+A może to tylko chwilowa moda, która wejdzie drzwiami i wyparuje oknem?</t>
+  </si>
+  <si>
+    <t>Czy zespół potrzebuje Scrum Mastera?</t>
+  </si>
+  <si>
+    <t>Michał Głowacki, Travactory</t>
+  </si>
+  <si>
+    <t>Ścieżka: Role w Scrum
+Czy dojrzały zespoł naprawdę potrzebuję Scrum Mastera?
+Kim jest Scrum Master?
+Ciężko znaleźć rolę która jest tak popularna a jednocześnie niezrozumiana, prosta w założeniu choć z drugiej strony fundamentalna w prawidłowym funkcjonowaniu zespołu Scrumowego.
+Jakie jest postrzeganie roli Scrum Mastera w Waszych zespołach? 
+Sekretarki która organizuje spotkania czy kierownika, osoby która sprawdza czy wszystko dowieźliśmy?
+Postaram się opowiedzieć o tym co świadczy o dojrzałości zespołu, jak tę dojrzałość ocenić i budować każdego dnia. Jak uczynić siebie zbędnym i przez to jednocześnie pożądanym!</t>
+  </si>
+  <si>
+    <t>Praca może być przyjemna.</t>
+  </si>
+  <si>
+    <t>Artur Zawadzki, wyGRAmy</t>
+  </si>
+  <si>
+    <t>Ścieżka - Agile
+Praca może być przyjemna. Naprawdę!
+Często w życiu poszukujemy kompromisu między pracą i niepracą. Staramy się rozróżniać rzeczy mniej przyjemne, do których często zaliczamy pracę, i te bardziej przyjemne, jak czas wolny od pracy. Są wśród nas tacy, którzy uważają, że pracują tylko dla pieniędzy, jak tacy, którzy próbują czerpać jakąś satysfakcję z obowiązków.
+Można jednak stworzyć sobie, zespołom i organizacjom warunki, w których praca jest przyjemnością. Jest możliwe ułożenie relacji między ludźmi, uzgodnienie organizacji zadań czy wybranie celów w taki sposób, aby zacząć traktować pracę jako przyjemny element naszego życia. Z pożytkiem dla nas samych i organizacji, w których pracujemy jest nam dobrze. Naprawdę!
+Z wystąpienia dowiesz się, jak wykorzystując Agile sprawić, żeby praca była przyjemnością. Dostaniesz kilka prostych i skutecznych sposobów, a także dowiesz się, z jakich narzędzi warto skorzystać.</t>
+  </si>
+  <si>
+    <t>Przerwa / Lunch</t>
+  </si>
+  <si>
+    <t>Czas na zregenerowanie sił przed częścia warsztatową konferencji. Jest to też doskonała okazja na networking.</t>
+  </si>
+  <si>
+    <t>Warsztat do wyboru przez uczestnika (wybierany przy zapisie na konferencję).
+Liczba miejsc na warsztatach jest ograniczona. O przyjeciu na warsztat decyduje kolejność zapisów.
+Design Thinking - Kamil Tyburski, Marysia Lachowicz
+Mapowanie Strumienia Wartości -  Marcin Stefański, Artur Zawadzki
+Wprowadzenie do Scrum - Artur Ziółkowski
+KANBAN - Pewnego razu... Jak Toyota została numerem 1 dzięki skupieniu się na Klientach - Alicja Łapa
+Opisy warsztatów znajdują się poniżej.</t>
+  </si>
+  <si>
+    <t>Warsztaty</t>
   </si>
 </sst>
 </file>
@@ -153,10 +204,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -471,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C35ADFD-B471-4976-BB71-BD65E7C9C264}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -506,189 +557,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43446</v>
+        <v>43288</v>
       </c>
       <c r="B2" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43446</v>
+        <v>43288</v>
       </c>
       <c r="B3" s="2">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43288</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43288</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43446</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43446</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43446</v>
+        <v>43288</v>
       </c>
       <c r="B6" s="2">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43111</v>
+        <v>43288</v>
       </c>
       <c r="B7" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>0.4375</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43288</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43447</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43448</v>
+        <v>43288</v>
       </c>
       <c r="B9" s="2">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43449</v>
+        <v>43288</v>
       </c>
       <c r="B10" s="2">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43450</v>
+        <v>43288</v>
       </c>
       <c r="B11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>42858</v>
+        <v>43288</v>
       </c>
       <c r="B12" s="2">
-        <v>12.125</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>23</v>
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43288</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
